--- a/SimCSE/performance analysis.xlsx
+++ b/SimCSE/performance analysis.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softl\Workspace (code)\Proj-Sentence-Representation\SimCSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADA5D41-5E09-473C-95EB-69834724F24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDC22D4-4A91-46AE-BB73-AF0E7E0123CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="4.2.1" sheetId="1" r:id="rId1"/>
+    <sheet name="4.21.0" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="117">
   <si>
     <t>Enviornment</t>
   </si>
@@ -52,9 +53,6 @@
     <t>CUDA Version: 11.6</t>
   </si>
   <si>
-    <t>Command</t>
-  </si>
-  <si>
     <t>--per_device_train_batch_size 64 \</t>
   </si>
   <si>
@@ -91,9 +89,6 @@
     <t>Training Argument (4.2.0 or 4.2.1 or 4.2.2)</t>
   </si>
   <si>
-    <t>→ Learning rate, ↓ seq length</t>
-  </si>
-  <si>
     <t>--learning_rate 3e-5 \</t>
   </si>
   <si>
@@ -130,17 +125,275 @@
     <t>transformers 4.2.1</t>
   </si>
   <si>
-    <t>--max_seq_length 32 \</t>
-  </si>
-  <si>
     <t>--max_seq_length 128 \</t>
+  </si>
+  <si>
+    <t>transformers 4.21.0</t>
+  </si>
+  <si>
+    <t>Training Argument (4.21.0)</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/docs/transformers/v4.21.1/en/main_classes/trainer</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>→ Learning rate</t>
+  </si>
+  <si>
+    <t>↓ seq length</t>
+  </si>
+  <si>
+    <t>Command line</t>
+  </si>
+  <si>
+    <t>nohup bash -c "\</t>
+  </si>
+  <si>
+    <t>(echo 'end')" &amp;</t>
+  </si>
+  <si>
+    <t>List of used arguments</t>
+  </si>
+  <si>
+    <t>INFO:__main__:__cached__setup_devices: cuda:0</t>
+  </si>
+  <si>
+    <t>INFO:__main__:_n_gpu: 1</t>
+  </si>
+  <si>
+    <t>INFO:__main__:adafactor: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:adam_beta1: 0.9</t>
+  </si>
+  <si>
+    <t>INFO:__main__:adam_beta2: 0.999</t>
+  </si>
+  <si>
+    <t>INFO:__main__:adam_epsilon: 1e-08</t>
+  </si>
+  <si>
+    <t>INFO:__main__:dataloader_drop_last: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:dataloader_num_workers: 0</t>
+  </si>
+  <si>
+    <t>INFO:__main__:debug: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:deepspeed: None</t>
+  </si>
+  <si>
+    <t>INFO:__main__:disable_tqdm: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:do_eval: True</t>
+  </si>
+  <si>
+    <t>INFO:__main__:do_predict: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:do_train: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:eval_accumulation_steps: None</t>
+  </si>
+  <si>
+    <t>INFO:__main__:eval_steps: 250</t>
+  </si>
+  <si>
+    <t>INFO:__main__:evaluation_strategy: EvaluationStrategy.STEPS</t>
+  </si>
+  <si>
+    <t>INFO:__main__:fp16: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:fp16_backend: auto</t>
+  </si>
+  <si>
+    <t>INFO:__main__:fp16_opt_level: O1</t>
+  </si>
+  <si>
+    <t>INFO:__main__:gradient_accumulation_steps: 1</t>
+  </si>
+  <si>
+    <t>INFO:__main__:greater_is_better: True</t>
+  </si>
+  <si>
+    <t>INFO:__main__:hard_negative_weight: 0</t>
+  </si>
+  <si>
+    <t>INFO:__main__:ignore_data_skip: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:label_names: None</t>
+  </si>
+  <si>
+    <t>INFO:__main__:label_smoothing_factor: 0.0</t>
+  </si>
+  <si>
+    <t>INFO:__main__:learning_rate: 1e-05</t>
+  </si>
+  <si>
+    <t>INFO:__main__:load_best_model_at_end: True</t>
+  </si>
+  <si>
+    <t>INFO:__main__:local_rank: -1</t>
+  </si>
+  <si>
+    <t>INFO:__main__:logging_dir: runs/Aug10_15-45-16_astraglus</t>
+  </si>
+  <si>
+    <t>INFO:__main__:logging_first_step: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:logging_steps: 250</t>
+  </si>
+  <si>
+    <t>INFO:__main__:lr_scheduler_type: SchedulerType.LINEAR</t>
+  </si>
+  <si>
+    <t>INFO:__main__:max_grad_norm: 1.0</t>
+  </si>
+  <si>
+    <t>INFO:__main__:max_seq_length: 32</t>
+  </si>
+  <si>
+    <t>INFO:__main__:max_steps: -1</t>
+  </si>
+  <si>
+    <t>INFO:__main__:metric_for_best_model: stsb_spearman</t>
+  </si>
+  <si>
+    <t>INFO:__main__:mlp_only_train: True</t>
+  </si>
+  <si>
+    <t>INFO:__main__:model_name_or_path: bert-base-uncased</t>
+  </si>
+  <si>
+    <t>INFO:__main__:no_cuda: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:num_train_epochs: 1.0</t>
+  </si>
+  <si>
+    <t>INFO:__main__:output_dir: output_dir</t>
+  </si>
+  <si>
+    <t>INFO:__main__:overwrite_output_dir: True</t>
+  </si>
+  <si>
+    <t>INFO:__main__:past_index: -1</t>
+  </si>
+  <si>
+    <t>INFO:__main__:per_device_eval_batch_size: 8</t>
+  </si>
+  <si>
+    <t>INFO:__main__:per_device_train_batch_size: 64</t>
+  </si>
+  <si>
+    <t>INFO:__main__:per_gpu_eval_batch_size: None</t>
+  </si>
+  <si>
+    <t>INFO:__main__:per_gpu_train_batch_size: None</t>
+  </si>
+  <si>
+    <t>INFO:__main__:pooler_type: cls</t>
+  </si>
+  <si>
+    <t>INFO:__main__:prediction_loss_only: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:preprocessing_num_workers: 1</t>
+  </si>
+  <si>
+    <t>INFO:__main__:remove_unused_columns: True</t>
+  </si>
+  <si>
+    <t>INFO:__main__:run_name: output_dir</t>
+  </si>
+  <si>
+    <t>INFO:__main__:save_steps: 250</t>
+  </si>
+  <si>
+    <t>INFO:__main__:save_total_limit: None</t>
+  </si>
+  <si>
+    <t>INFO:__main__:seed: 42</t>
+  </si>
+  <si>
+    <t>INFO:__main__:sharded_ddp: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:simcse_mode: unsup</t>
+  </si>
+  <si>
+    <t>INFO:__main__:temperature: 0.05</t>
+  </si>
+  <si>
+    <t>INFO:__main__:tpu_metrics_debug: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:tpu_num_cores: None</t>
+  </si>
+  <si>
+    <t>INFO:__main__:warmup_steps: 0</t>
+  </si>
+  <si>
+    <t>INFO:__main__:weight_decay: 0.0</t>
+  </si>
+  <si>
+    <t>List of unused arguments</t>
+  </si>
+  <si>
+    <t>['True', '--save_strategy', 'steps', '--logging_strategy', 'steps', 'True', '--report_to', 'tensorboard'</t>
+  </si>
+  <si>
+    <t>두번째 덩그러니 True는 "load_best_model_at_end"로부터 온것으로 추정</t>
+  </si>
+  <si>
+    <t>첫번재 덩그러니 True는 "overwrite_output_dir" 로부터 온 것으로 추정</t>
+  </si>
+  <si>
+    <t>--output_dir transformer_4.21.0_result_0 \</t>
+  </si>
+  <si>
+    <t>--output_dir transformer_4.21.0_result_1 \</t>
+  </si>
+  <si>
+    <t>--output_dir transformer_4.21.0_result_2 \</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>(CUDA_VISIBLE_DEVICES=0 nohup python main.py --max_seq_length 64 --learning_rate 1e-5 --per_device_train_batch_size 64 --preprocessing_num_workers 8 --output_dir transformer_4.2.1_result_0 &amp;&gt;  transformer_4.2.1_0.out); \</t>
+  </si>
+  <si>
+    <t>(CUDA_VISIBLE_DEVICES=0 nohup python main.py --max_seq_length 64 --learning_rate 3e-5 --per_device_train_batch_size 64 --preprocessing_num_workers 8 --output_dir transformer_4.2.1_result_0 &amp;&gt;&gt; transformer_4.2.1_0.out); \</t>
+  </si>
+  <si>
+    <t>(CUDA_VISIBLE_DEVICES=0 nohup python main.py --max_seq_length 64 --learning_rate 5e-5 --per_device_train_batch_size 64 --preprocessing_num_workers 8 --output_dir transformer_4.2.1_result_0 &amp;&gt;&gt; transformer_4.2.1_0.out); \</t>
+  </si>
+  <si>
+    <t>(CUDA_VISIBLE_DEVICES=1 nohup python main.py --max_seq_length 128 --learning_rate 1e-5 --per_device_train_batch_size 64 --preprocessing_num_workers 8 --output_dir transformer_4.2.1_result_1 &amp;&gt;  transformer_4.2.1_1.out); \</t>
+  </si>
+  <si>
+    <t>(CUDA_VISIBLE_DEVICES=1 nohup python main.py --max_seq_length 128 --learning_rate 3e-5 --per_device_train_batch_size 64 --preprocessing_num_workers 8 --output_dir transformer_4.2.1_result_1 &amp;&gt;&gt; transformer_4.2.1_1.out); \</t>
+  </si>
+  <si>
+    <t>(CUDA_VISIBLE_DEVICES=1 nohup python main.py --max_seq_length 128 --learning_rate 5e-5 --per_device_train_batch_size 64 --preprocessing_num_workers 8 --output_dir transformer_4.2.1_result_1 &amp;&gt;&gt; transformer_4.2.1_1.out); \</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +405,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,10 +446,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -463,10 +733,677 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="W44" sqref="W44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A12" r:id="rId1" xr:uid="{92F1618B-03B5-4500-9894-05F409502D92}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A3F1A3-C6FC-423F-9089-DE06F93F5A55}">
+  <dimension ref="A1:L55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,290 +1440,272 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>8</v>
       </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>20</v>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" t="s">
-        <v>23</v>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>8</v>
       </c>
-      <c r="G32" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" t="s">
-        <v>9</v>
-      </c>
-      <c r="L33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L35" s="1" t="s">
+      <c r="G40" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="L40" t="s">
         <v>21</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" t="s">
-        <v>25</v>
-      </c>
-      <c r="L40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" t="s">
-        <v>9</v>
-      </c>
-      <c r="L41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" t="s">
-        <v>22</v>
-      </c>
-      <c r="L46" t="s">
-        <v>23</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" xr:uid="{92F1618B-03B5-4500-9894-05F409502D92}"/>
+    <hyperlink ref="A12" r:id="rId1" xr:uid="{DA999560-DAEA-4C5F-81B7-16FCF4CAE79C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/SimCSE/performance analysis.xlsx
+++ b/SimCSE/performance analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softl\Workspace (code)\Proj-Sentence-Representation\SimCSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDC22D4-4A91-46AE-BB73-AF0E7E0123CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25715A26-E14F-471B-BF1A-BC68C4727246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -736,7 +736,7 @@
   <dimension ref="A1:L128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="W44" sqref="W44"/>
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SimCSE/performance analysis.xlsx
+++ b/SimCSE/performance analysis.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softl\Workspace (code)\Proj-Sentence-Representation\SimCSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25715A26-E14F-471B-BF1A-BC68C4727246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFC67AA-1CDD-45A2-8A8C-D89D278B939E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4.2.1" sheetId="1" r:id="rId1"/>
     <sheet name="4.21.0" sheetId="2" r:id="rId2"/>
+    <sheet name="parameter diff" sheetId="3" r:id="rId3"/>
+    <sheet name="package diff" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="179">
   <si>
     <t>Enviornment</t>
   </si>
@@ -245,9 +247,6 @@
     <t>INFO:__main__:local_rank: -1</t>
   </si>
   <si>
-    <t>INFO:__main__:logging_dir: runs/Aug10_15-45-16_astraglus</t>
-  </si>
-  <si>
     <t>INFO:__main__:logging_first_step: False</t>
   </si>
   <si>
@@ -260,9 +259,6 @@
     <t>INFO:__main__:max_grad_norm: 1.0</t>
   </si>
   <si>
-    <t>INFO:__main__:max_seq_length: 32</t>
-  </si>
-  <si>
     <t>INFO:__main__:max_steps: -1</t>
   </si>
   <si>
@@ -281,9 +277,6 @@
     <t>INFO:__main__:num_train_epochs: 1.0</t>
   </si>
   <si>
-    <t>INFO:__main__:output_dir: output_dir</t>
-  </si>
-  <si>
     <t>INFO:__main__:overwrite_output_dir: True</t>
   </si>
   <si>
@@ -314,9 +307,6 @@
     <t>INFO:__main__:remove_unused_columns: True</t>
   </si>
   <si>
-    <t>INFO:__main__:run_name: output_dir</t>
-  </si>
-  <si>
     <t>INFO:__main__:save_steps: 250</t>
   </si>
   <si>
@@ -387,13 +377,211 @@
   </si>
   <si>
     <t>(CUDA_VISIBLE_DEVICES=1 nohup python main.py --max_seq_length 128 --learning_rate 5e-5 --per_device_train_batch_size 64 --preprocessing_num_workers 8 --output_dir transformer_4.2.1_result_1 &amp;&gt;&gt; transformer_4.2.1_1.out); \</t>
+  </si>
+  <si>
+    <t>INFO:__main__:auto_find_batch_size: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:bf16: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:bf16_full_eval: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:data_seed: None</t>
+  </si>
+  <si>
+    <t>INFO:__main__:dataloader_pin_memory: True</t>
+  </si>
+  <si>
+    <t>INFO:__main__:ddp_bucket_cap_mb: None</t>
+  </si>
+  <si>
+    <t>INFO:__main__:ddp_find_unused_parameters: None</t>
+  </si>
+  <si>
+    <t>INFO:__main__:debug: []</t>
+  </si>
+  <si>
+    <t>INFO:__main__:eval_delay: 0</t>
+  </si>
+  <si>
+    <t>INFO:__main__:evaluation_strategy: steps</t>
+  </si>
+  <si>
+    <t>INFO:__main__:fp16_full_eval: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:fsdp: []</t>
+  </si>
+  <si>
+    <t>INFO:__main__:fsdp_min_num_params: 0</t>
+  </si>
+  <si>
+    <t>INFO:__main__:fsdp_transformer_layer_cls_to_wrap: None</t>
+  </si>
+  <si>
+    <t>INFO:__main__:full_determinism: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:gradient_checkpointing: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:group_by_length: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:half_precision_backend: auto</t>
+  </si>
+  <si>
+    <t>INFO:__main__:hub_model_id: None</t>
+  </si>
+  <si>
+    <t>INFO:__main__:hub_private_repo: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:hub_strategy: every_save</t>
+  </si>
+  <si>
+    <t>INFO:__main__:hub_token: None</t>
+  </si>
+  <si>
+    <t>INFO:__main__:include_inputs_for_metrics: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:jit_mode_eval: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:length_column_name: length</t>
+  </si>
+  <si>
+    <t>INFO:__main__:log_level: -1</t>
+  </si>
+  <si>
+    <t>INFO:__main__:log_level_replica: -1</t>
+  </si>
+  <si>
+    <t>INFO:__main__:log_on_each_node: True</t>
+  </si>
+  <si>
+    <t>INFO:__main__:logging_dir: transformer_4.21.0_result_0/runs/Aug10_16-26-18_astraglus</t>
+  </si>
+  <si>
+    <t>INFO:__main__:logging_nan_inf_filter: True</t>
+  </si>
+  <si>
+    <t>INFO:__main__:logging_strategy: steps</t>
+  </si>
+  <si>
+    <t>INFO:__main__:lr_scheduler_type: linear</t>
+  </si>
+  <si>
+    <t>INFO:__main__:max_seq_length: 64</t>
+  </si>
+  <si>
+    <t>INFO:__main__:mp_parameters:</t>
+  </si>
+  <si>
+    <t>INFO:__main__:optim: adamw_hf</t>
+  </si>
+  <si>
+    <t>INFO:__main__:output_dir: transformer_4.21.0_result_0</t>
+  </si>
+  <si>
+    <t>INFO:__main__:push_to_hub: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:push_to_hub_model_id: None</t>
+  </si>
+  <si>
+    <t>INFO:__main__:push_to_hub_organization: None</t>
+  </si>
+  <si>
+    <t>INFO:__main__:push_to_hub_token: None</t>
+  </si>
+  <si>
+    <t>INFO:__main__:ray_scope: last</t>
+  </si>
+  <si>
+    <t>INFO:__main__:report_to: ['tensorboard']</t>
+  </si>
+  <si>
+    <t>INFO:__main__:resume_from_checkpoint: None</t>
+  </si>
+  <si>
+    <t>INFO:__main__:run_name: transformer_4.21.0_result_0</t>
+  </si>
+  <si>
+    <t>INFO:__main__:save_on_each_node: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:save_strategy: steps</t>
+  </si>
+  <si>
+    <t>INFO:__main__:sharded_ddp: []</t>
+  </si>
+  <si>
+    <t>INFO:__main__:skip_memory_metrics: True</t>
+  </si>
+  <si>
+    <t>INFO:__main__:tf32: None</t>
+  </si>
+  <si>
+    <t>INFO:__main__:torchdynamo: None</t>
+  </si>
+  <si>
+    <t>INFO:__main__:train_file: ./data/wiki1m_for_simcse.txt</t>
+  </si>
+  <si>
+    <t>INFO:__main__:use_ipex: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:use_legacy_prediction_loop: False</t>
+  </si>
+  <si>
+    <t>INFO:__main__:warmup_ratio: 0.0</t>
+  </si>
+  <si>
+    <t>INFO:__main__:xpu_backend: None</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>INFO:__main__:logging_dir: runs/Aug10_16-12-14_astraglus</t>
+  </si>
+  <si>
+    <t>INFO:__main__:output_dir: transformer_4.2.1_result_0</t>
+  </si>
+  <si>
+    <t>INFO:__main__:preprocessing_num_workers: 8</t>
+  </si>
+  <si>
+    <t>INFO:__main__:run_name: transformer_4.2.1_result_0</t>
+  </si>
+  <si>
+    <t>v4.11.0: GPT-J, Speech2Text2, FNet, Pipeline GPU utilization, dynamic model code loading</t>
+  </si>
+  <si>
+    <t>v4.6.0: ViT, DeiT, CLIP, LUKE, BigBirdPegasus, MegatronBERT</t>
+  </si>
+  <si>
+    <t>https://github.com/huggingface/transformers/releases?page=5</t>
+  </si>
+  <si>
+    <t>https://github.com/huggingface/transformers/releases/tag/v4.11.0</t>
+  </si>
+  <si>
+    <t>Fix loss computation in Trainer #13760 (@sgugger) - https://github.com/huggingface/transformers/pull/13760</t>
+  </si>
+  <si>
+    <t>[trainer] solve "scheduler before optimizer step" warning #11144 (@stas00) - https://github.com/huggingface/transformers/pull/11144</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +612,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -446,12 +648,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -468,6 +672,236 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>392877</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>143746</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A244EEF0-C5F2-95C0-803E-D9B5FAA0B21A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="16852077" cy="6239746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>316666</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>38939</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{803E7FD2-5C79-60AD-0235-6CE2B3CDDF07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6410325"/>
+          <a:ext cx="16775866" cy="6011114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>2297</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>844</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE4FBE5B-B6F2-FBF6-9594-EE9658AE232E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12430125"/>
+          <a:ext cx="16461497" cy="6049219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>392877</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>28846</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69D9A33-4CFA-B6B4-DD24-ADCA2E4BE3C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="18468975"/>
+          <a:ext cx="16852077" cy="1943371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>163157</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>67414</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CCEFA87-9132-D670-E584-415FC1571E99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1695450" y="1247775"/>
+          <a:ext cx="8830907" cy="5296639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -733,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L128"/>
+  <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,7 +1221,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="4"/>
@@ -820,573 +1254,580 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G30" t="s">
         <v>23</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>8</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G31" t="s">
         <v>8</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>26</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G36" t="s">
         <v>20</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L36" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>7</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G38" t="s">
         <v>23</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>8</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G39" t="s">
         <v>8</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L41" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L43" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>111</v>
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>113</v>
+      <c r="A46" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C114" t="s">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C115" t="s">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C116" t="s">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C117" t="s">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C118" t="s">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C119" t="s">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C120" t="s">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C121" t="s">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C122" t="s">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C123" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C126" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D127" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D128" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1400,10 +1841,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A3F1A3-C6FC-423F-9089-DE06F93F5A55}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L172"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:B55"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,13 +1991,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1627,13 +2068,13 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -1659,17 +2100,17 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -1677,29 +2118,599 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C167" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1708,4 +2719,75 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3856D0-0E9F-4C21-9829-BDA52F7B2E95}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M113" sqref="M113"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A61D980-EBA6-46E2-8ECF-21DA1B2A7637}">
+  <dimension ref="B2:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B40" r:id="rId1" xr:uid="{0D427027-B780-42F1-9DA4-6B5708FBD1C2}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{5EF34182-E39D-4967-B6CF-43A190E5938B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/SimCSE/performance analysis.xlsx
+++ b/SimCSE/performance analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softl\Workspace (code)\Proj-Sentence-Representation\SimCSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFC67AA-1CDD-45A2-8A8C-D89D278B939E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223ABFE3-9428-41AC-870E-7B91F0489285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4.2.1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="182">
   <si>
     <t>Enviornment</t>
   </si>
@@ -349,15 +349,6 @@
     <t>첫번재 덩그러니 True는 "overwrite_output_dir" 로부터 온 것으로 추정</t>
   </si>
   <si>
-    <t>--output_dir transformer_4.21.0_result_0 \</t>
-  </si>
-  <si>
-    <t>--output_dir transformer_4.21.0_result_1 \</t>
-  </si>
-  <si>
-    <t>--output_dir transformer_4.21.0_result_2 \</t>
-  </si>
-  <si>
     <t>Parameters</t>
   </si>
   <si>
@@ -575,6 +566,24 @@
   </si>
   <si>
     <t>[trainer] solve "scheduler before optimizer step" warning #11144 (@stas00) - https://github.com/huggingface/transformers/pull/11144</t>
+  </si>
+  <si>
+    <t>(CUDA_VISIBLE_DEVICES=2 nohup python main.py --max_seq_length 64 --learning_rate 1e-5 --per_device_train_batch_size 64 --output_dir transformer_4.21.0_result_0 &amp;&gt;  transformer_4.21.0_0.out); \</t>
+  </si>
+  <si>
+    <t>(CUDA_VISIBLE_DEVICES=2 nohup python main.py --max_seq_length 64 --learning_rate 3e-5 --per_device_train_batch_size 64 --output_dir transformer_4.21.0_result_0 &amp;&gt;&gt; transformer_4.21.0_0.out); \</t>
+  </si>
+  <si>
+    <t>(CUDA_VISIBLE_DEVICES=2 nohup python main.py --max_seq_length 64 --learning_rate 5e-5 --per_device_train_batch_size 64 --output_dir transformer_4.21.0_result_0 &amp;&gt;&gt; transformer_4.21.0_0.out); \</t>
+  </si>
+  <si>
+    <t>(CUDA_VISIBLE_DEVICES=3 nohup python main.py --max_seq_length 128 --learning_rate 1e-5 --per_device_train_batch_size 64 --output_dir transformer_4.21.0_result_1 &amp;&gt;  transformer_4.21.0_1.out); \</t>
+  </si>
+  <si>
+    <t>(CUDA_VISIBLE_DEVICES=3 nohup python main.py --max_seq_length 128 --learning_rate 3e-5 --per_device_train_batch_size 64 --output_dir transformer_4.21.0_result_1 &amp;&gt;&gt; transformer_4.21.0_1.out); \</t>
+  </si>
+  <si>
+    <t>(CUDA_VISIBLE_DEVICES=3 nohup python main.py --max_seq_length 128 --learning_rate 5e-5 --per_device_train_batch_size 64 --output_dir transformer_4.21.0_result_1 &amp;&gt;&gt; transformer_4.21.0_1.out); \</t>
   </si>
 </sst>
 </file>
@@ -675,6 +684,99 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>125031</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>47973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55E8F2E6-23E5-754D-AECC-914307318077}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="9744075"/>
+          <a:ext cx="8640381" cy="2495898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>382159</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>181293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A631BEC9-021A-8C7E-1D26-342FA232F5F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="5524500"/>
+          <a:ext cx="8306959" cy="2276793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -855,7 +957,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1169,7 +1271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1442,17 +1544,17 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1467,17 +1569,17 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1487,7 +1589,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1642,7 +1744,7 @@
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
@@ -1667,7 +1769,7 @@
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
@@ -1702,7 +1804,7 @@
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.25">
@@ -1747,7 +1849,7 @@
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.25">
@@ -1757,7 +1859,7 @@
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.25">
@@ -1841,10 +1943,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A3F1A3-C6FC-423F-9089-DE06F93F5A55}">
-  <dimension ref="A1:L172"/>
+  <dimension ref="A1:C339"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1904,813 +2006,647 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" t="s">
-        <v>23</v>
-      </c>
-      <c r="L26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" t="s">
-        <v>23</v>
-      </c>
-      <c r="L34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C227" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C228" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C229" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C230" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C231" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C232" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C233" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C234" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C235" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
+    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C236" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
+    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C237" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C238" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C239" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C240" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C241" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C242" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C243" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C244" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C245" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C246" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C247" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C248" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C249" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
+    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C250" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C251" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
+    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C252" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C253" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C254" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
+    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C255" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C256" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C257" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C258" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C259" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C260" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C261" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C262" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C263" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
+    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C264" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
+    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C265" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C266" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
+    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C267" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
+    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C268" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
+    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C269" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
+    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C270" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C271" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
+    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C272" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C102" t="s">
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C273" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C274" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C275" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C276" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C104" t="s">
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C277" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C278" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C279" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C105" t="s">
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C280" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C106" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C107" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C109" t="s">
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C281" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C282" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C283" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C284" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C114" t="s">
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C285" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C286" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C115" t="s">
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C287" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C116" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C117" t="s">
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C288" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C289" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C118" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C119" t="s">
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C290" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C291" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C292" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C293" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C294" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C120" t="s">
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C295" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C296" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C297" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C121" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C122" t="s">
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C298" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C123" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C124" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C125" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C126" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C127" t="s">
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C299" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C300" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C301" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C302" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C303" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C304" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C305" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C306" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C307" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C308" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C128" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" t="s">
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C309" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" t="s">
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C310" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" t="s">
+    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C311" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" t="s">
+    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C312" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" t="s">
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C313" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C314" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" t="s">
+    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C315" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" t="s">
+    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C316" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" t="s">
+    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C317" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" t="s">
+    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C318" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C319" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" t="s">
+    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C320" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C321" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C322" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" t="s">
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C323" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C324" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" t="s">
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C325" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C326" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" t="s">
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C327" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" t="s">
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C328" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C329" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C330" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" t="s">
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C331" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" t="s">
+    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C332" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C161" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C162" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C163" t="s">
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C333" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C164" t="s">
+    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C334" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C335" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C336" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C165" t="s">
+    <row r="338" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B338" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C339" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C166" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C167" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C168" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C169" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C172" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2718,6 +2654,7 @@
     <hyperlink ref="A12" r:id="rId1" xr:uid="{DA999560-DAEA-4C5F-81B7-16FCF4CAE79C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2725,7 +2662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3856D0-0E9F-4C21-9829-BDA52F7B2E95}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M113" sqref="M113"/>
     </sheetView>
   </sheetViews>
@@ -2748,17 +2685,17 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -2766,17 +2703,17 @@
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
